--- a/biology/Zoologie/Deudorix_epijarbas/Deudorix_epijarbas.xlsx
+++ b/biology/Zoologie/Deudorix_epijarbas/Deudorix_epijarbas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deudorix epijarbas est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Deudorix.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deudorix epijarbas a été nommé par Frederic Moore en 1857.
-Sous-espèces
-Deudorix epijarbas epijarbas en Inde, Océanie dont la Nouvelle-Calédonie[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deudorix epijarbas epijarbas en Inde, Océanie dont la Nouvelle-Calédonie.
 Deudorix epijarbas amatius Fruhstorfer, 1912
 Deudorix epijarbas ancus Fruhstorfer, 1912 ; dans le Nord de l'Inde
 Deudorix epijarbas biaka Joicey et Talbo
@@ -529,44 +578,7 @@
 Deudorix epijarbas menesicles Fruhstorfer, 1912 ; à Taïwan
 Deudorix epijarbas mesarchus Fruhstorfer, 1912
 Deudorix epijarbas terenzius Fruhstorfer
-Deudorix epijarbas turbo Fruhstorfer, 1912 ; aux Moluques[2]
-Noms vernaculaires
-Il se nomme Cornelian pour Deudorix epijarbas cinnabarus ou Hairy Line Blue en anglais[2],[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Deudorix_epijarbas</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon d'une envergure de 24 à 40 mm avec une longue queue à chaque aile postérieure. Il présente un dimorphisme sexuel plus ou moins marqué suivant les sous-espèces, le dessus du mâle est orange largement bordé de marron aux antérieures, celui de la femelle est marron foncé ou marron clair violacé ou avec la même ornementation que le mâle en plus clair.
-Le revers est gris beige orné de fines lignes blanches formées de segments arqués; Les ailes postérieures présentent un ocelle anal et un ocelle à la base de la queue, et ce dernier est cerclé d'orange[3].
-Chenille
-Sa chenille est verte et marron avec de l'orange aux extrémités et une tête marron[3].
-</t>
+Deudorix epijarbas turbo Fruhstorfer, 1912 ; aux Moluques</t>
         </is>
       </c>
     </row>
@@ -591,15 +603,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un migrateur[4].
-Période de vol et hivernation
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Connarus, Aesculus indicus, Caryota rumphiana, Euphoria longan, Harpullia pendula,  Litchi chinensis, Pometia pinnata,Sapindus trifoliatus, Sarcopteryx martyana[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Cornelian pour Deudorix epijarbas cinnabarus ou Hairy Line Blue en anglais,.
 </t>
         </is>
       </c>
@@ -625,17 +640,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud-est de l'Asie, Inde, Sri Lanka, Birmanie, Thaïlande, Philippines, Taïwan et presque toute l'Océanie, Sulawesi, Moluques, Australie, Nouvelle-Calédonie[2].
-En Nouvelle-Calédonie il réside à Grande Terre et aux iles Loyauté[5].
-Biotope
-Il réside en dessous de 1 000 mètres[4].
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon d'une envergure de 24 à 40 mm avec une longue queue à chaque aile postérieure. Il présente un dimorphisme sexuel plus ou moins marqué suivant les sous-espèces, le dessus du mâle est orange largement bordé de marron aux antérieures, celui de la femelle est marron foncé ou marron clair violacé ou avec la même ornementation que le mâle en plus clair.
+Le revers est gris beige orné de fines lignes blanches formées de segments arqués; Les ailes postérieures présentent un ocelle anal et un ocelle à la base de la queue, et ce dernier est cerclé d'orange.
 </t>
         </is>
       </c>
@@ -661,10 +674,227 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chenille est verte et marron avec de l'orange aux extrémités et une tête marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Connarus, Aesculus indicus, Caryota rumphiana, Euphoria longan, Harpullia pendula,  Litchi chinensis, Pometia pinnata,Sapindus trifoliatus, Sarcopteryx martyana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud-est de l'Asie, Inde, Sri Lanka, Birmanie, Thaïlande, Philippines, Taïwan et presque toute l'Océanie, Sulawesi, Moluques, Australie, Nouvelle-Calédonie.
+En Nouvelle-Calédonie il réside à Grande Terre et aux iles Loyauté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en dessous de 1 000 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix_epijarbas</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Îles Samoa ont émis en 1986 un timbre orné d'un Deudorix epijarbas doris mâle.
 </t>
